--- a/biology/Botanique/Ophioglossaceae/Ophioglossaceae.xlsx
+++ b/biology/Botanique/Ophioglossaceae/Ophioglossaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ophioglossaceae, seuls représentants de l'ordre des Ophioglossales, sont une famille de fougères dont le nom signifie littéralement « langues de serpent », référence à leurs frondes allongées en forme de tête de serpent[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ophioglossaceae, seuls représentants de l'ordre des Ophioglossales, sont une famille de fougères dont le nom signifie littéralement « langues de serpent », référence à leurs frondes allongées en forme de tête de serpent.
 Les Ophioglossaceae ont un rhizome court et charnu, donnant naissance chaque année à un certain nombre de frondes pétiolées et engainantes, et à un même nombre de racines. Les frondes comprennent un limbe végétatif simple ou diversement divisé et une portion fructifère portant des sacs (sporanges) disposés en deux rangées alternes le long des rachis.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Ophioglossum, dérivé du grec όφις / ofis, serpent and γλώσσα / glossa, langue, en référence à la forme des feuilles fertiles de la plante.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Botrychium Sw.
 Cheiroglossa K. Presl
@@ -577,9 +593,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
